--- a/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/옥냥이 5,6,7월 영상 카테고리.xlsx
+++ b/DBD 분석/맵 분석/3. 콜드윈드 농장(★)/3. 썩은 들판(★)/영상분석자료/모멘트 시트 및 정리/옥냥이 5,6,7월 영상 카테고리.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bumizi\Desktop\Study\Thesis\DBD 분석\맵 분석\3. 콜드윈드 농장(★)\3. 썩은 들판(★)\영상분석자료\모멘트 시트 및 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7-1" sheetId="2" r:id="rId2"/>
+    <sheet name="7-2" sheetId="3" r:id="rId3"/>
+    <sheet name="6-1" sheetId="4" r:id="rId4"/>
+    <sheet name="6-2" sheetId="5" r:id="rId5"/>
+    <sheet name="6-3" sheetId="6" r:id="rId6"/>
+    <sheet name="6-4" sheetId="7" r:id="rId7"/>
+    <sheet name="6-5" sheetId="8" r:id="rId8"/>
+    <sheet name="5-1" sheetId="9" r:id="rId9"/>
+    <sheet name="5-2" sheetId="10" r:id="rId10"/>
+    <sheet name="5-3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="157">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +287,370 @@
   </si>
   <si>
     <t>894,714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30~6:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:35~6:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:25~7:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:05~9:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~10:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모멘트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼포먼스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔터테인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VYEv63cqA0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:05~2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:30~2:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:30~0:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:50~1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:25~0:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:25~2:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20~3:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:45~3:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:35~4:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:35~6:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:05~9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:25~9:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40~9:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:15~10:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:55~12:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:45~1:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:15~2:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20~3:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:00~4:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30~4:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:45~2:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:05~2:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:35~4:05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:45~0:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:25~3:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:25~5:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:50~6:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:05~1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:20~2:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:00~3:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20~3:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:25~4:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:35~0:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:25~1:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:05~2:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:15~0:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:40~0:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10~1:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20~1:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20~1:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:55~2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:45~3:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:30~3:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +734,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -376,6 +753,4436 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>489313</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8020050" y="3857625"/>
+          <a:ext cx="4813663" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>154102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801600" y="3838575"/>
+          <a:ext cx="2756263" cy="1344727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>4 ~ 10  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>14 ~ 20  =  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1"/>
+            <a:t>/ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,7 +5451,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
@@ -1130,4 +5937,3906 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>87</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9">
+        <v>5</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="U10">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>16</v>
+      </c>
+      <c r="AD10">
+        <v>14</v>
+      </c>
+      <c r="AG10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>95</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>96</v>
+      </c>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA13">
+        <v>3</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="W14" t="s">
+        <v>97</v>
+      </c>
+      <c r="X14">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD14">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>99</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>16</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>